--- a/4.Analysis/Data/raw/day0/phase_008/subj_day0_phase_008.xlsx
+++ b/4.Analysis/Data/raw/day0/phase_008/subj_day0_phase_008.xlsx
@@ -1,92 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="24750" windowHeight="10430"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USERID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject.Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time_day0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e_mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wechat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">major</t>
-  </si>
-  <si>
-    <t xml:space="preserve">left_hand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refresh_rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resolution_ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eligible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moneny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paid_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParticipantID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subj_idx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="249">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>USERID</t>
+  </si>
+  <si>
+    <t>Subject.Name</t>
+  </si>
+  <si>
+    <t>Time_day0</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Source.Details</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>e_mail</t>
+  </si>
+  <si>
+    <t>wechat</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>left_hand</t>
+  </si>
+  <si>
+    <t>refresh_rate</t>
+  </si>
+  <si>
+    <t>resolution_ratio</t>
+  </si>
+  <si>
+    <t>Eligible</t>
+  </si>
+  <si>
+    <t>Moneny</t>
+  </si>
+  <si>
+    <t>Paid_date</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ParticipantID</t>
+  </si>
+  <si>
+    <t>subj_idx</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">	598867196789129216</t>
@@ -98,22 +100,22 @@
     <t xml:space="preserve">	2023-12-20 19:15:23</t>
   </si>
   <si>
-    <t xml:space="preserve">3分33秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">直接访问</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219.151.28.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">个人信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无宗教</t>
+    <t>3分33秒</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>直接访问</t>
+  </si>
+  <si>
+    <t>219.151.28.79</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>无宗教</t>
   </si>
   <si>
     <t xml:space="preserve">2934134095@qq.com	</t>
@@ -122,13 +124,13 @@
     <t xml:space="preserve">NISHIWOBAOBEI0011	</t>
   </si>
   <si>
-    <t xml:space="preserve">四川省/自贡市/大安区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">工学（计算机类）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">否</t>
+    <t>四川省/自贡市/大安区</t>
+  </si>
+  <si>
+    <t>工学（计算机类）</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
   <si>
     <t xml:space="preserve">60	</t>
@@ -137,16 +139,16 @@
     <t xml:space="preserve">1920X1080	</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_008_subj_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>12.20</t>
+  </si>
+  <si>
+    <t>phase_008_subj_11</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t xml:space="preserve">	598892418162491392</t>
@@ -158,10 +160,10 @@
     <t xml:space="preserve">	2023-12-20 19:32:31</t>
   </si>
   <si>
-    <t xml:space="preserve">5分55秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.155.12.173</t>
+    <t>5分55秒</t>
+  </si>
+  <si>
+    <t>36.155.12.173</t>
   </si>
   <si>
     <t xml:space="preserve">2921138731@qq.com	</t>
@@ -170,13 +172,13 @@
     <t xml:space="preserve">TangDougogo	</t>
   </si>
   <si>
-    <t xml:space="preserve">河北省/秦皇岛市/海港区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_008_subj_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
+    <t>河北省/秦皇岛市/海港区</t>
+  </si>
+  <si>
+    <t>phase_008_subj_17</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t xml:space="preserve">	602312870918619136</t>
@@ -188,10 +190,10 @@
     <t xml:space="preserve">	2023-12-20 19:21:39</t>
   </si>
   <si>
-    <t xml:space="preserve">4分5秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.155.12.170</t>
+    <t>4分5秒</t>
+  </si>
+  <si>
+    <t>36.155.12.170</t>
   </si>
   <si>
     <t xml:space="preserve">2796959986@qq.com	</t>
@@ -200,16 +202,16 @@
     <t xml:space="preserve">xbbsgdsm	</t>
   </si>
   <si>
-    <t xml:space="preserve">福建省/三明市/清流县</t>
-  </si>
-  <si>
-    <t xml:space="preserve">工学（电子类）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_008_subj_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
+    <t>福建省/三明市/清流县</t>
+  </si>
+  <si>
+    <t>工学（电子类）</t>
+  </si>
+  <si>
+    <t>phase_008_subj_19</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t xml:space="preserve">	612753157184815104</t>
@@ -221,10 +223,10 @@
     <t xml:space="preserve">	2023-12-20 19:31:42</t>
   </si>
   <si>
-    <t xml:space="preserve">8分52秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.84.232.123</t>
+    <t>8分52秒</t>
+  </si>
+  <si>
+    <t>42.84.232.123</t>
   </si>
   <si>
     <t xml:space="preserve">1318578967@qq.com	</t>
@@ -233,19 +235,19 @@
     <t xml:space="preserve">zone1987ftly	</t>
   </si>
   <si>
-    <t xml:space="preserve">辽宁省/大连市/甘井子区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">管理学</t>
+    <t>辽宁省/大连市/甘井子区</t>
+  </si>
+  <si>
+    <t>管理学</t>
   </si>
   <si>
     <t xml:space="preserve">2160*1440	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
+    <t>phase_008_subj_15</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t xml:space="preserve">	618772915025870848</t>
@@ -257,10 +259,10 @@
     <t xml:space="preserve">	2023-12-20 19:28:20</t>
   </si>
   <si>
-    <t xml:space="preserve">3分21秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.102.67.86</t>
+    <t>3分21秒</t>
+  </si>
+  <si>
+    <t>182.102.67.86</t>
   </si>
   <si>
     <t xml:space="preserve">2522259652@qq.com	</t>
@@ -269,7 +271,7 @@
     <t xml:space="preserve">17769291215	</t>
   </si>
   <si>
-    <t xml:space="preserve">江西省/新余市/渝水区</t>
+    <t>江西省/新余市/渝水区</t>
   </si>
   <si>
     <t xml:space="preserve">120	</t>
@@ -278,10 +280,10 @@
     <t xml:space="preserve">2500X1440	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
+    <t>phase_008_subj_5</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t xml:space="preserve">	618773298611748864</t>
@@ -293,10 +295,10 @@
     <t xml:space="preserve">	2023-12-20 19:26:31</t>
   </si>
   <si>
-    <t xml:space="preserve">2分34秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.224.134.218</t>
+    <t>2分34秒</t>
+  </si>
+  <si>
+    <t>106.224.134.218</t>
   </si>
   <si>
     <t xml:space="preserve">2082586106@qq.com	</t>
@@ -305,19 +307,19 @@
     <t xml:space="preserve">19170814710	</t>
   </si>
   <si>
-    <t xml:space="preserve">内蒙古自治区/通辽市/科尔沁区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">教育学</t>
+    <t>内蒙古自治区/通辽市/科尔沁区</t>
+  </si>
+  <si>
+    <t>教育学</t>
   </si>
   <si>
     <t xml:space="preserve">1920*1080	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
+    <t>phase_008_subj_8</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t xml:space="preserve">	618876128202850304</t>
@@ -329,7 +331,7 @@
     <t xml:space="preserve">	2023-12-20 19:23:19</t>
   </si>
   <si>
-    <t xml:space="preserve">5分29秒</t>
+    <t>5分29秒</t>
   </si>
   <si>
     <t xml:space="preserve">1564730955@qq.com	</t>
@@ -338,16 +340,16 @@
     <t xml:space="preserve">18770140447	</t>
   </si>
   <si>
-    <t xml:space="preserve">上海市/市辖区/黄浦区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">理学（数学）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_008_subj_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
+    <t>上海市/市辖区/黄浦区</t>
+  </si>
+  <si>
+    <t>理学（数学）</t>
+  </si>
+  <si>
+    <t>phase_008_subj_14</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t xml:space="preserve">	656564688670162944</t>
@@ -359,10 +361,10 @@
     <t xml:space="preserve">	2023-12-20 19:32:45</t>
   </si>
   <si>
-    <t xml:space="preserve">7分51秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.7.106.60</t>
+    <t>7分51秒</t>
+  </si>
+  <si>
+    <t>111.7.106.60</t>
   </si>
   <si>
     <t xml:space="preserve">3294753641@qq.com	</t>
@@ -371,16 +373,16 @@
     <t xml:space="preserve">cjwdka1001	</t>
   </si>
   <si>
-    <t xml:space="preserve">天津市/市辖区/和平区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">工学（土木类）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_008_subj_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
+    <t>天津市/市辖区/和平区</t>
+  </si>
+  <si>
+    <t>工学（土木类）</t>
+  </si>
+  <si>
+    <t>phase_008_subj_1</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">	682500248714608640</t>
@@ -392,10 +394,10 @@
     <t xml:space="preserve">	2023-12-20 19:19:40</t>
   </si>
   <si>
-    <t xml:space="preserve">6分45秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219.217.155.92</t>
+    <t>6分45秒</t>
+  </si>
+  <si>
+    <t>219.217.155.92</t>
   </si>
   <si>
     <t xml:space="preserve">lvmu_7736@163.com	</t>
@@ -404,10 +406,10 @@
     <t xml:space="preserve">lvmu18981003825	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
+    <t>phase_008_subj_3</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t xml:space="preserve">	738081261448597505</t>
@@ -419,10 +421,10 @@
     <t xml:space="preserve">	2023-12-20 20:02:41</t>
   </si>
   <si>
-    <t xml:space="preserve">6分24秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.62.235.168</t>
+    <t>6分24秒</t>
+  </si>
+  <si>
+    <t>117.62.235.168</t>
   </si>
   <si>
     <t xml:space="preserve">zdhwd4455@126.com	</t>
@@ -431,10 +433,10 @@
     <t xml:space="preserve">Juanshubelive	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
+    <t>phase_008_subj_12</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t xml:space="preserve">	757367705316888578</t>
@@ -446,10 +448,10 @@
     <t xml:space="preserve">	2023-12-20 19:33:20</t>
   </si>
   <si>
-    <t xml:space="preserve">9分2秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.27.25.190</t>
+    <t>9分2秒</t>
+  </si>
+  <si>
+    <t>103.27.25.190</t>
   </si>
   <si>
     <t xml:space="preserve">2241456828@qq.com	</t>
@@ -458,19 +460,19 @@
     <t xml:space="preserve">15960925300	</t>
   </si>
   <si>
-    <t xml:space="preserve">天津市/市辖区/河东区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医学</t>
+    <t>天津市/市辖区/河东区</t>
+  </si>
+  <si>
+    <t>医学</t>
   </si>
   <si>
     <t xml:space="preserve">1920x1080	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
+    <t>phase_008_subj_2</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t xml:space="preserve">	768533085213167618</t>
@@ -482,10 +484,10 @@
     <t xml:space="preserve">	2023-12-20 19:26:38</t>
   </si>
   <si>
-    <t xml:space="preserve">10分58秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.227.53.222</t>
+    <t>10分58秒</t>
+  </si>
+  <si>
+    <t>115.227.53.222</t>
   </si>
   <si>
     <t xml:space="preserve">184106195@qq.com	</t>
@@ -494,13 +496,13 @@
     <t xml:space="preserve">17816489730	</t>
   </si>
   <si>
-    <t xml:space="preserve">北京市/市辖区/朝阳区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_008_subj_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
+    <t>北京市/市辖区/朝阳区</t>
+  </si>
+  <si>
+    <t>phase_008_subj_13</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t xml:space="preserve">	773271155669995521</t>
@@ -512,10 +514,10 @@
     <t xml:space="preserve">	2023-12-20 19:34:24</t>
   </si>
   <si>
-    <t xml:space="preserve">9分14秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.217.25.145</t>
+    <t>9分14秒</t>
+  </si>
+  <si>
+    <t>183.217.25.145</t>
   </si>
   <si>
     <t xml:space="preserve">2639520842@qq.com	</t>
@@ -524,16 +526,16 @@
     <t xml:space="preserve">Y05banana	</t>
   </si>
   <si>
-    <t xml:space="preserve">江西省/南昌市/新建区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">理学（其他）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_008_subj_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
+    <t>江西省/南昌市/新建区</t>
+  </si>
+  <si>
+    <t>理学（其他）</t>
+  </si>
+  <si>
+    <t>phase_008_subj_4</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t xml:space="preserve">	774615163172294657</t>
@@ -545,10 +547,10 @@
     <t xml:space="preserve">	2023-12-20 19:35:47</t>
   </si>
   <si>
-    <t xml:space="preserve">11分1秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.230.199.80</t>
+    <t>11分1秒</t>
+  </si>
+  <si>
+    <t>183.230.199.80</t>
   </si>
   <si>
     <t xml:space="preserve">893727770@qq.com	</t>
@@ -557,13 +559,13 @@
     <t xml:space="preserve">15803063506	</t>
   </si>
   <si>
-    <t xml:space="preserve">重庆市/市辖区/九龙坡区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_008_subj_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
+    <t>重庆市/市辖区/九龙坡区</t>
+  </si>
+  <si>
+    <t>phase_008_subj_16</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t xml:space="preserve">	776480023275376642</t>
@@ -575,10 +577,10 @@
     <t xml:space="preserve">	2023-12-20 19:39:10</t>
   </si>
   <si>
-    <t xml:space="preserve">14分17秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.143.33.247</t>
+    <t>14分17秒</t>
+  </si>
+  <si>
+    <t>36.143.33.247</t>
   </si>
   <si>
     <t xml:space="preserve">1594712932@qq.com	</t>
@@ -587,16 +589,16 @@
     <t xml:space="preserve">15227800679	</t>
   </si>
   <si>
-    <t xml:space="preserve">河北省/保定市/莲池区</t>
+    <t>河北省/保定市/莲池区</t>
   </si>
   <si>
     <t xml:space="preserve">1366*768	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
+    <t>phase_008_subj_18</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t xml:space="preserve">	777148633652137985</t>
@@ -608,10 +610,10 @@
     <t xml:space="preserve">	2023-12-20 19:32:37</t>
   </si>
   <si>
-    <t xml:space="preserve">6分50秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.167.214.74</t>
+    <t>6分50秒</t>
+  </si>
+  <si>
+    <t>124.167.214.74</t>
   </si>
   <si>
     <t xml:space="preserve">1127013534@qq.com	</t>
@@ -620,16 +622,16 @@
     <t xml:space="preserve">sx119120119	</t>
   </si>
   <si>
-    <t xml:space="preserve">广东省/广州市/荔湾区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_008_subj_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
+    <t>广东省/广州市/荔湾区</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>phase_008_subj_6</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t xml:space="preserve">	779745842755276801</t>
@@ -641,10 +643,10 @@
     <t xml:space="preserve">	2023-12-20 19:33:40</t>
   </si>
   <si>
-    <t xml:space="preserve">8分29秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.14.47.218</t>
+    <t>8分29秒</t>
+  </si>
+  <si>
+    <t>111.14.47.218</t>
   </si>
   <si>
     <t xml:space="preserve">1954829214@qq.com	</t>
@@ -653,16 +655,16 @@
     <t xml:space="preserve">19863132695	</t>
   </si>
   <si>
-    <t xml:space="preserve">山东省/济宁市/曲阜市</t>
+    <t>山东省/济宁市/曲阜市</t>
   </si>
   <si>
     <t xml:space="preserve">1920×1080	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
+    <t>phase_008_subj_20</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve">	783896727882305537</t>
@@ -674,10 +676,10 @@
     <t xml:space="preserve">	2023-12-20 19:26:43</t>
   </si>
   <si>
-    <t xml:space="preserve">9分55秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.47.121.97</t>
+    <t>9分55秒</t>
+  </si>
+  <si>
+    <t>125.47.121.97</t>
   </si>
   <si>
     <t xml:space="preserve">2809670986@qq.com	</t>
@@ -686,16 +688,16 @@
     <t xml:space="preserve">MT-234641	</t>
   </si>
   <si>
-    <t xml:space="preserve">河南省/郑州市/中原区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">农学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_008_subj_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
+    <t>河南省/郑州市/中原区</t>
+  </si>
+  <si>
+    <t>农学</t>
+  </si>
+  <si>
+    <t>phase_008_subj_7</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t xml:space="preserve">	786709021557137410</t>
@@ -707,10 +709,10 @@
     <t xml:space="preserve">	2023-12-20 19:30:21</t>
   </si>
   <si>
-    <t xml:space="preserve">8分44秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.113.79.103</t>
+    <t>8分44秒</t>
+  </si>
+  <si>
+    <t>171.113.79.103</t>
   </si>
   <si>
     <t xml:space="preserve">125684657@qq.com	</t>
@@ -719,16 +721,16 @@
     <t xml:space="preserve">18062434856	</t>
   </si>
   <si>
-    <t xml:space="preserve">湖北省/武汉市/市辖区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">经济学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_008_subj_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
+    <t>湖北省/武汉市/市辖区</t>
+  </si>
+  <si>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>phase_008_subj_10</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">	789544027459686402</t>
@@ -740,7 +742,7 @@
     <t xml:space="preserve">	2023-12-20 19:22:04</t>
   </si>
   <si>
-    <t xml:space="preserve">116.16.152.7</t>
+    <t>116.16.152.7</t>
   </si>
   <si>
     <t xml:space="preserve">3354341442@qq.com	</t>
@@ -749,7 +751,7 @@
     <t xml:space="preserve">lazymeow2	</t>
   </si>
   <si>
-    <t xml:space="preserve">广东省/潮州市/市辖区</t>
+    <t>广东省/潮州市/市辖区</t>
   </si>
   <si>
     <t xml:space="preserve">75	</t>
@@ -758,32 +760,374 @@
     <t xml:space="preserve">1920乘以1080	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_008_subj_9</t>
+    <t>phase_008_subj_9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -791,17 +1135,526 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1078,19 +1931,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="22" max="22" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,8 +2022,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:24">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1231,15 +2089,15 @@
       <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>361</v>
       </c>
-      <c r="X2" t="n">
-        <v>598867196789129216</v>
+      <c r="X2">
+        <v>5.98867196789129e+17</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:24">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1305,15 +2163,15 @@
       <c r="V3" t="s">
         <v>53</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>590</v>
       </c>
-      <c r="X3" t="n">
-        <v>598892418162491392</v>
+      <c r="X3">
+        <v>5.98892418162491e+17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:24">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1379,15 +2237,15 @@
       <c r="V4" t="s">
         <v>64</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>630</v>
       </c>
-      <c r="X4" t="n">
-        <v>602312870918619136</v>
+      <c r="X4">
+        <v>6.02312870918619e+17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:24">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1453,15 +2311,15 @@
       <c r="V5" t="s">
         <v>76</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>481</v>
       </c>
-      <c r="X5" t="n">
-        <v>612753157184815104</v>
+      <c r="X5">
+        <v>6.12753157184815e+17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:24">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1527,15 +2385,15 @@
       <c r="V6" t="s">
         <v>88</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>203</v>
       </c>
-      <c r="X6" t="n">
-        <v>618772915025870848</v>
+      <c r="X6">
+        <v>6.18772915025871e+17</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:24">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1601,15 +2459,15 @@
       <c r="V7" t="s">
         <v>100</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>273</v>
       </c>
-      <c r="X7" t="n">
-        <v>618773298611748864</v>
+      <c r="X7">
+        <v>6.18773298611749e+17</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:24">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1675,15 +2533,15 @@
       <c r="V8" t="s">
         <v>110</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>470</v>
       </c>
-      <c r="X8" t="n">
-        <v>618876128202850304</v>
+      <c r="X8">
+        <v>6.1887612820285e+17</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:24">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1749,15 +2607,15 @@
       <c r="V9" t="s">
         <v>121</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>106</v>
       </c>
-      <c r="X9" t="n">
-        <v>656564688670162944</v>
+      <c r="X9">
+        <v>6.56564688670163e+17</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:24">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1823,15 +2681,15 @@
       <c r="V10" t="s">
         <v>130</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>154</v>
       </c>
-      <c r="X10" t="n">
-        <v>682500248714608640</v>
+      <c r="X10">
+        <v>6.82500248714609e+17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:24">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1897,15 +2755,15 @@
       <c r="V11" t="s">
         <v>139</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>405</v>
       </c>
-      <c r="X11" t="n">
-        <v>738081261448597504</v>
+      <c r="X11">
+        <v>7.38081261448598e+17</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:24">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1971,15 +2829,15 @@
       <c r="V12" t="s">
         <v>151</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>139</v>
       </c>
-      <c r="X12" t="n">
-        <v>757367705316888576</v>
+      <c r="X12">
+        <v>7.57367705316889e+17</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:24">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2045,15 +2903,15 @@
       <c r="V13" t="s">
         <v>161</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>417</v>
       </c>
-      <c r="X13" t="n">
-        <v>768533085213167616</v>
+      <c r="X13">
+        <v>7.68533085213168e+17</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:24">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2119,15 +2977,15 @@
       <c r="V14" t="s">
         <v>172</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14">
         <v>176</v>
       </c>
-      <c r="X14" t="n">
-        <v>773271155669995520</v>
+      <c r="X14">
+        <v>7.73271155669996e+17</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:24">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2193,15 +3051,15 @@
       <c r="V15" t="s">
         <v>182</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15">
         <v>539</v>
       </c>
-      <c r="X15" t="n">
-        <v>774615163172294656</v>
+      <c r="X15">
+        <v>7.74615163172295e+17</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:24">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -2267,15 +3125,15 @@
       <c r="V16" t="s">
         <v>193</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16">
         <v>618</v>
       </c>
-      <c r="X16" t="n">
-        <v>776480023275376640</v>
+      <c r="X16">
+        <v>7.76480023275377e+17</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:24">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -2341,15 +3199,15 @@
       <c r="V17" t="s">
         <v>204</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17">
         <v>240</v>
       </c>
-      <c r="X17" t="n">
-        <v>777148633652137984</v>
+      <c r="X17">
+        <v>7.77148633652138e+17</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:24">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -2415,15 +3273,15 @@
       <c r="V18" t="s">
         <v>215</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18">
         <v>651</v>
       </c>
-      <c r="X18" t="n">
-        <v>779745842755276800</v>
+      <c r="X18">
+        <v>7.79745842755277e+17</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:24">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2489,15 +3347,15 @@
       <c r="V19" t="s">
         <v>226</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19">
         <v>253</v>
       </c>
-      <c r="X19" t="n">
-        <v>783896727882305536</v>
+      <c r="X19">
+        <v>7.83896727882306e+17</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:24">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -2563,15 +3421,15 @@
       <c r="V20" t="s">
         <v>237</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W20">
         <v>336</v>
       </c>
-      <c r="X20" t="n">
-        <v>786709021557137408</v>
+      <c r="X20">
+        <v>7.86709021557137e+17</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:24">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2637,15 +3495,16 @@
       <c r="V21" t="s">
         <v>248</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21">
         <v>284</v>
       </c>
-      <c r="X21" t="n">
-        <v>789544027459686400</v>
+      <c r="X21">
+        <v>7.89544027459686e+17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/4.Analysis/Data/raw/day0/phase_008/subj_day0_phase_008.xlsx
+++ b/4.Analysis/Data/raw/day0/phase_008/subj_day0_phase_008.xlsx
@@ -1,94 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="249">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Num</t>
-  </si>
-  <si>
-    <t>USERID</t>
-  </si>
-  <si>
-    <t>Subject.Name</t>
-  </si>
-  <si>
-    <t>Time_day0</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Source.Details</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>Node</t>
-  </si>
-  <si>
-    <t>religion</t>
-  </si>
-  <si>
-    <t>e_mail</t>
-  </si>
-  <si>
-    <t>wechat</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>major</t>
-  </si>
-  <si>
-    <t>left_hand</t>
-  </si>
-  <si>
-    <t>refresh_rate</t>
-  </si>
-  <si>
-    <t>resolution_ratio</t>
-  </si>
-  <si>
-    <t>Eligible</t>
-  </si>
-  <si>
-    <t>Moneny</t>
-  </si>
-  <si>
-    <t>Paid_date</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ParticipantID</t>
-  </si>
-  <si>
-    <t>subj_idx</t>
-  </si>
-  <si>
-    <t>1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USERID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject.Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_day0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source.Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e_mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wechat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left_hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refresh_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resolution_ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eligible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moneny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParticipantID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subj_idx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">	598867196789129216</t>
@@ -100,22 +98,22 @@
     <t xml:space="preserve">	2023-12-20 19:15:23</t>
   </si>
   <si>
-    <t>3分33秒</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>直接访问</t>
-  </si>
-  <si>
-    <t>219.151.28.79</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>无宗教</t>
+    <t xml:space="preserve">3分33秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">直接访问</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219.151.28.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">个人信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无宗教</t>
   </si>
   <si>
     <t xml:space="preserve">2934134095@qq.com	</t>
@@ -124,13 +122,13 @@
     <t xml:space="preserve">NISHIWOBAOBEI0011	</t>
   </si>
   <si>
-    <t>四川省/自贡市/大安区</t>
-  </si>
-  <si>
-    <t>工学（计算机类）</t>
-  </si>
-  <si>
-    <t>否</t>
+    <t xml:space="preserve">四川省/自贡市/大安区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工学（计算机类）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">否</t>
   </si>
   <si>
     <t xml:space="preserve">60	</t>
@@ -139,16 +137,16 @@
     <t xml:space="preserve">1920X1080	</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>12.20</t>
-  </si>
-  <si>
-    <t>phase_008_subj_11</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_008_subj_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
   </si>
   <si>
     <t xml:space="preserve">	598892418162491392</t>
@@ -160,10 +158,10 @@
     <t xml:space="preserve">	2023-12-20 19:32:31</t>
   </si>
   <si>
-    <t>5分55秒</t>
-  </si>
-  <si>
-    <t>36.155.12.173</t>
+    <t xml:space="preserve">5分55秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.155.12.173</t>
   </si>
   <si>
     <t xml:space="preserve">2921138731@qq.com	</t>
@@ -172,13 +170,13 @@
     <t xml:space="preserve">TangDougogo	</t>
   </si>
   <si>
-    <t>河北省/秦皇岛市/海港区</t>
-  </si>
-  <si>
-    <t>phase_008_subj_17</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t xml:space="preserve">河北省/秦皇岛市/海港区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_008_subj_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">	602312870918619136</t>
@@ -190,10 +188,10 @@
     <t xml:space="preserve">	2023-12-20 19:21:39</t>
   </si>
   <si>
-    <t>4分5秒</t>
-  </si>
-  <si>
-    <t>36.155.12.170</t>
+    <t xml:space="preserve">4分5秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.155.12.170</t>
   </si>
   <si>
     <t xml:space="preserve">2796959986@qq.com	</t>
@@ -202,16 +200,16 @@
     <t xml:space="preserve">xbbsgdsm	</t>
   </si>
   <si>
-    <t>福建省/三明市/清流县</t>
-  </si>
-  <si>
-    <t>工学（电子类）</t>
-  </si>
-  <si>
-    <t>phase_008_subj_19</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t xml:space="preserve">福建省/三明市/清流县</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工学（电子类）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_008_subj_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
   </si>
   <si>
     <t xml:space="preserve">	612753157184815104</t>
@@ -223,10 +221,10 @@
     <t xml:space="preserve">	2023-12-20 19:31:42</t>
   </si>
   <si>
-    <t>8分52秒</t>
-  </si>
-  <si>
-    <t>42.84.232.123</t>
+    <t xml:space="preserve">8分52秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.84.232.123</t>
   </si>
   <si>
     <t xml:space="preserve">1318578967@qq.com	</t>
@@ -235,19 +233,19 @@
     <t xml:space="preserve">zone1987ftly	</t>
   </si>
   <si>
-    <t>辽宁省/大连市/甘井子区</t>
-  </si>
-  <si>
-    <t>管理学</t>
+    <t xml:space="preserve">辽宁省/大连市/甘井子区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">管理学</t>
   </si>
   <si>
     <t xml:space="preserve">2160*1440	</t>
   </si>
   <si>
-    <t>phase_008_subj_15</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t xml:space="preserve">phase_008_subj_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">	618772915025870848</t>
@@ -259,10 +257,10 @@
     <t xml:space="preserve">	2023-12-20 19:28:20</t>
   </si>
   <si>
-    <t>3分21秒</t>
-  </si>
-  <si>
-    <t>182.102.67.86</t>
+    <t xml:space="preserve">3分21秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.102.67.86</t>
   </si>
   <si>
     <t xml:space="preserve">2522259652@qq.com	</t>
@@ -271,7 +269,7 @@
     <t xml:space="preserve">17769291215	</t>
   </si>
   <si>
-    <t>江西省/新余市/渝水区</t>
+    <t xml:space="preserve">江西省/新余市/渝水区</t>
   </si>
   <si>
     <t xml:space="preserve">120	</t>
@@ -280,10 +278,10 @@
     <t xml:space="preserve">2500X1440	</t>
   </si>
   <si>
-    <t>phase_008_subj_5</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t xml:space="preserve">phase_008_subj_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">	618773298611748864</t>
@@ -295,10 +293,10 @@
     <t xml:space="preserve">	2023-12-20 19:26:31</t>
   </si>
   <si>
-    <t>2分34秒</t>
-  </si>
-  <si>
-    <t>106.224.134.218</t>
+    <t xml:space="preserve">2分34秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.224.134.218</t>
   </si>
   <si>
     <t xml:space="preserve">2082586106@qq.com	</t>
@@ -307,19 +305,19 @@
     <t xml:space="preserve">19170814710	</t>
   </si>
   <si>
-    <t>内蒙古自治区/通辽市/科尔沁区</t>
-  </si>
-  <si>
-    <t>教育学</t>
+    <t xml:space="preserve">内蒙古自治区/通辽市/科尔沁区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">教育学</t>
   </si>
   <si>
     <t xml:space="preserve">1920*1080	</t>
   </si>
   <si>
-    <t>phase_008_subj_8</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t xml:space="preserve">phase_008_subj_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">	618876128202850304</t>
@@ -331,7 +329,7 @@
     <t xml:space="preserve">	2023-12-20 19:23:19</t>
   </si>
   <si>
-    <t>5分29秒</t>
+    <t xml:space="preserve">5分29秒</t>
   </si>
   <si>
     <t xml:space="preserve">1564730955@qq.com	</t>
@@ -340,16 +338,16 @@
     <t xml:space="preserve">18770140447	</t>
   </si>
   <si>
-    <t>上海市/市辖区/黄浦区</t>
-  </si>
-  <si>
-    <t>理学（数学）</t>
-  </si>
-  <si>
-    <t>phase_008_subj_14</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t xml:space="preserve">上海市/市辖区/黄浦区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">理学（数学）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_008_subj_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">	656564688670162944</t>
@@ -361,10 +359,10 @@
     <t xml:space="preserve">	2023-12-20 19:32:45</t>
   </si>
   <si>
-    <t>7分51秒</t>
-  </si>
-  <si>
-    <t>111.7.106.60</t>
+    <t xml:space="preserve">7分51秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.7.106.60</t>
   </si>
   <si>
     <t xml:space="preserve">3294753641@qq.com	</t>
@@ -373,16 +371,16 @@
     <t xml:space="preserve">cjwdka1001	</t>
   </si>
   <si>
-    <t>天津市/市辖区/和平区</t>
-  </si>
-  <si>
-    <t>工学（土木类）</t>
-  </si>
-  <si>
-    <t>phase_008_subj_1</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t xml:space="preserve">天津市/市辖区/和平区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工学（土木类）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_008_subj_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">	682500248714608640</t>
@@ -394,10 +392,10 @@
     <t xml:space="preserve">	2023-12-20 19:19:40</t>
   </si>
   <si>
-    <t>6分45秒</t>
-  </si>
-  <si>
-    <t>219.217.155.92</t>
+    <t xml:space="preserve">6分45秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219.217.155.92</t>
   </si>
   <si>
     <t xml:space="preserve">lvmu_7736@163.com	</t>
@@ -406,10 +404,10 @@
     <t xml:space="preserve">lvmu18981003825	</t>
   </si>
   <si>
-    <t>phase_008_subj_3</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t xml:space="preserve">phase_008_subj_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
   </si>
   <si>
     <t xml:space="preserve">	738081261448597505</t>
@@ -421,10 +419,10 @@
     <t xml:space="preserve">	2023-12-20 20:02:41</t>
   </si>
   <si>
-    <t>6分24秒</t>
-  </si>
-  <si>
-    <t>117.62.235.168</t>
+    <t xml:space="preserve">6分24秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.62.235.168</t>
   </si>
   <si>
     <t xml:space="preserve">zdhwd4455@126.com	</t>
@@ -433,10 +431,10 @@
     <t xml:space="preserve">Juanshubelive	</t>
   </si>
   <si>
-    <t>phase_008_subj_12</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t xml:space="preserve">phase_008_subj_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">	757367705316888578</t>
@@ -448,10 +446,10 @@
     <t xml:space="preserve">	2023-12-20 19:33:20</t>
   </si>
   <si>
-    <t>9分2秒</t>
-  </si>
-  <si>
-    <t>103.27.25.190</t>
+    <t xml:space="preserve">9分2秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.27.25.190</t>
   </si>
   <si>
     <t xml:space="preserve">2241456828@qq.com	</t>
@@ -460,19 +458,19 @@
     <t xml:space="preserve">15960925300	</t>
   </si>
   <si>
-    <t>天津市/市辖区/河东区</t>
-  </si>
-  <si>
-    <t>医学</t>
+    <t xml:space="preserve">天津市/市辖区/河东区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医学</t>
   </si>
   <si>
     <t xml:space="preserve">1920x1080	</t>
   </si>
   <si>
-    <t>phase_008_subj_2</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t xml:space="preserve">phase_008_subj_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">	768533085213167618</t>
@@ -484,10 +482,10 @@
     <t xml:space="preserve">	2023-12-20 19:26:38</t>
   </si>
   <si>
-    <t>10分58秒</t>
-  </si>
-  <si>
-    <t>115.227.53.222</t>
+    <t xml:space="preserve">10分58秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.227.53.222</t>
   </si>
   <si>
     <t xml:space="preserve">184106195@qq.com	</t>
@@ -496,13 +494,13 @@
     <t xml:space="preserve">17816489730	</t>
   </si>
   <si>
-    <t>北京市/市辖区/朝阳区</t>
-  </si>
-  <si>
-    <t>phase_008_subj_13</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t xml:space="preserve">北京市/市辖区/朝阳区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_008_subj_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
   </si>
   <si>
     <t xml:space="preserve">	773271155669995521</t>
@@ -514,10 +512,10 @@
     <t xml:space="preserve">	2023-12-20 19:34:24</t>
   </si>
   <si>
-    <t>9分14秒</t>
-  </si>
-  <si>
-    <t>183.217.25.145</t>
+    <t xml:space="preserve">9分14秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.217.25.145</t>
   </si>
   <si>
     <t xml:space="preserve">2639520842@qq.com	</t>
@@ -526,16 +524,16 @@
     <t xml:space="preserve">Y05banana	</t>
   </si>
   <si>
-    <t>江西省/南昌市/新建区</t>
-  </si>
-  <si>
-    <t>理学（其他）</t>
-  </si>
-  <si>
-    <t>phase_008_subj_4</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t xml:space="preserve">江西省/南昌市/新建区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">理学（其他）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_008_subj_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">	774615163172294657</t>
@@ -547,10 +545,10 @@
     <t xml:space="preserve">	2023-12-20 19:35:47</t>
   </si>
   <si>
-    <t>11分1秒</t>
-  </si>
-  <si>
-    <t>183.230.199.80</t>
+    <t xml:space="preserve">11分1秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.230.199.80</t>
   </si>
   <si>
     <t xml:space="preserve">893727770@qq.com	</t>
@@ -559,13 +557,13 @@
     <t xml:space="preserve">15803063506	</t>
   </si>
   <si>
-    <t>重庆市/市辖区/九龙坡区</t>
-  </si>
-  <si>
-    <t>phase_008_subj_16</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t xml:space="preserve">重庆市/市辖区/九龙坡区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_008_subj_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
   </si>
   <si>
     <t xml:space="preserve">	776480023275376642</t>
@@ -577,10 +575,10 @@
     <t xml:space="preserve">	2023-12-20 19:39:10</t>
   </si>
   <si>
-    <t>14分17秒</t>
-  </si>
-  <si>
-    <t>36.143.33.247</t>
+    <t xml:space="preserve">14分17秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.143.33.247</t>
   </si>
   <si>
     <t xml:space="preserve">1594712932@qq.com	</t>
@@ -589,16 +587,16 @@
     <t xml:space="preserve">15227800679	</t>
   </si>
   <si>
-    <t>河北省/保定市/莲池区</t>
+    <t xml:space="preserve">河北省/保定市/莲池区</t>
   </si>
   <si>
     <t xml:space="preserve">1366*768	</t>
   </si>
   <si>
-    <t>phase_008_subj_18</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t xml:space="preserve">phase_008_subj_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
   </si>
   <si>
     <t xml:space="preserve">	777148633652137985</t>
@@ -610,10 +608,10 @@
     <t xml:space="preserve">	2023-12-20 19:32:37</t>
   </si>
   <si>
-    <t>6分50秒</t>
-  </si>
-  <si>
-    <t>124.167.214.74</t>
+    <t xml:space="preserve">6分50秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.167.214.74</t>
   </si>
   <si>
     <t xml:space="preserve">1127013534@qq.com	</t>
@@ -622,16 +620,16 @@
     <t xml:space="preserve">sx119120119	</t>
   </si>
   <si>
-    <t>广东省/广州市/荔湾区</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>phase_008_subj_6</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t xml:space="preserve">广东省/广州市/荔湾区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_008_subj_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
   </si>
   <si>
     <t xml:space="preserve">	779745842755276801</t>
@@ -643,10 +641,10 @@
     <t xml:space="preserve">	2023-12-20 19:33:40</t>
   </si>
   <si>
-    <t>8分29秒</t>
-  </si>
-  <si>
-    <t>111.14.47.218</t>
+    <t xml:space="preserve">8分29秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.14.47.218</t>
   </si>
   <si>
     <t xml:space="preserve">1954829214@qq.com	</t>
@@ -655,16 +653,16 @@
     <t xml:space="preserve">19863132695	</t>
   </si>
   <si>
-    <t>山东省/济宁市/曲阜市</t>
+    <t xml:space="preserve">山东省/济宁市/曲阜市</t>
   </si>
   <si>
     <t xml:space="preserve">1920×1080	</t>
   </si>
   <si>
-    <t>phase_008_subj_20</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t xml:space="preserve">phase_008_subj_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">	783896727882305537</t>
@@ -676,10 +674,10 @@
     <t xml:space="preserve">	2023-12-20 19:26:43</t>
   </si>
   <si>
-    <t>9分55秒</t>
-  </si>
-  <si>
-    <t>125.47.121.97</t>
+    <t xml:space="preserve">9分55秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.47.121.97</t>
   </si>
   <si>
     <t xml:space="preserve">2809670986@qq.com	</t>
@@ -688,16 +686,16 @@
     <t xml:space="preserve">MT-234641	</t>
   </si>
   <si>
-    <t>河南省/郑州市/中原区</t>
-  </si>
-  <si>
-    <t>农学</t>
-  </si>
-  <si>
-    <t>phase_008_subj_7</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t xml:space="preserve">河南省/郑州市/中原区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">农学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_008_subj_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">	786709021557137410</t>
@@ -709,10 +707,10 @@
     <t xml:space="preserve">	2023-12-20 19:30:21</t>
   </si>
   <si>
-    <t>8分44秒</t>
-  </si>
-  <si>
-    <t>171.113.79.103</t>
+    <t xml:space="preserve">8分44秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.113.79.103</t>
   </si>
   <si>
     <t xml:space="preserve">125684657@qq.com	</t>
@@ -721,16 +719,16 @@
     <t xml:space="preserve">18062434856	</t>
   </si>
   <si>
-    <t>湖北省/武汉市/市辖区</t>
-  </si>
-  <si>
-    <t>经济学</t>
-  </si>
-  <si>
-    <t>phase_008_subj_10</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t xml:space="preserve">湖北省/武汉市/市辖区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">经济学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_008_subj_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">	789544027459686402</t>
@@ -742,7 +740,7 @@
     <t xml:space="preserve">	2023-12-20 19:22:04</t>
   </si>
   <si>
-    <t>116.16.152.7</t>
+    <t xml:space="preserve">116.16.152.7</t>
   </si>
   <si>
     <t xml:space="preserve">3354341442@qq.com	</t>
@@ -751,7 +749,7 @@
     <t xml:space="preserve">lazymeow2	</t>
   </si>
   <si>
-    <t>广东省/潮州市/市辖区</t>
+    <t xml:space="preserve">广东省/潮州市/市辖区</t>
   </si>
   <si>
     <t xml:space="preserve">75	</t>
@@ -760,374 +758,32 @@
     <t xml:space="preserve">1920乘以1080	</t>
   </si>
   <si>
-    <t>phase_008_subj_9</t>
+    <t xml:space="preserve">phase_008_subj_9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1135,526 +791,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
@@ -1931,24 +1078,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:X21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="22" max="22" width="22" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2022,8 +1164,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2089,15 +1231,15 @@
       <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>361</v>
       </c>
-      <c r="X2">
-        <v>5.98867196789129e+17</v>
+      <c r="X2" t="n">
+        <v>598867196789129216</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2163,15 +1305,15 @@
       <c r="V3" t="s">
         <v>53</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>590</v>
       </c>
-      <c r="X3">
-        <v>5.98892418162491e+17</v>
+      <c r="X3" t="n">
+        <v>598892418162491392</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2237,15 +1379,15 @@
       <c r="V4" t="s">
         <v>64</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>630</v>
       </c>
-      <c r="X4">
-        <v>6.02312870918619e+17</v>
+      <c r="X4" t="n">
+        <v>602312870918619136</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2311,15 +1453,15 @@
       <c r="V5" t="s">
         <v>76</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>481</v>
       </c>
-      <c r="X5">
-        <v>6.12753157184815e+17</v>
+      <c r="X5" t="n">
+        <v>612753157184815104</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2385,15 +1527,15 @@
       <c r="V6" t="s">
         <v>88</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>203</v>
       </c>
-      <c r="X6">
-        <v>6.18772915025871e+17</v>
+      <c r="X6" t="n">
+        <v>618772915025870848</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2459,15 +1601,15 @@
       <c r="V7" t="s">
         <v>100</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>273</v>
       </c>
-      <c r="X7">
-        <v>6.18773298611749e+17</v>
+      <c r="X7" t="n">
+        <v>618773298611748864</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2533,15 +1675,15 @@
       <c r="V8" t="s">
         <v>110</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>470</v>
       </c>
-      <c r="X8">
-        <v>6.1887612820285e+17</v>
+      <c r="X8" t="n">
+        <v>618876128202850304</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2607,15 +1749,15 @@
       <c r="V9" t="s">
         <v>121</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>106</v>
       </c>
-      <c r="X9">
-        <v>6.56564688670163e+17</v>
+      <c r="X9" t="n">
+        <v>656564688670162944</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2681,15 +1823,15 @@
       <c r="V10" t="s">
         <v>130</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>154</v>
       </c>
-      <c r="X10">
-        <v>6.82500248714609e+17</v>
+      <c r="X10" t="n">
+        <v>682500248714608640</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2755,15 +1897,15 @@
       <c r="V11" t="s">
         <v>139</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>405</v>
       </c>
-      <c r="X11">
-        <v>7.38081261448598e+17</v>
+      <c r="X11" t="n">
+        <v>738081261448597504</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -2829,15 +1971,15 @@
       <c r="V12" t="s">
         <v>151</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="n">
         <v>139</v>
       </c>
-      <c r="X12">
-        <v>7.57367705316889e+17</v>
+      <c r="X12" t="n">
+        <v>757367705316888576</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2903,15 +2045,15 @@
       <c r="V13" t="s">
         <v>161</v>
       </c>
-      <c r="W13">
+      <c r="W13" t="n">
         <v>417</v>
       </c>
-      <c r="X13">
-        <v>7.68533085213168e+17</v>
+      <c r="X13" t="n">
+        <v>768533085213167616</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2977,15 +2119,15 @@
       <c r="V14" t="s">
         <v>172</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>176</v>
       </c>
-      <c r="X14">
-        <v>7.73271155669996e+17</v>
+      <c r="X14" t="n">
+        <v>773271155669995520</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -3051,15 +2193,15 @@
       <c r="V15" t="s">
         <v>182</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>539</v>
       </c>
-      <c r="X15">
-        <v>7.74615163172295e+17</v>
+      <c r="X15" t="n">
+        <v>774615163172294656</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -3125,15 +2267,15 @@
       <c r="V16" t="s">
         <v>193</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>618</v>
       </c>
-      <c r="X16">
-        <v>7.76480023275377e+17</v>
+      <c r="X16" t="n">
+        <v>776480023275376640</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -3199,15 +2341,15 @@
       <c r="V17" t="s">
         <v>204</v>
       </c>
-      <c r="W17">
+      <c r="W17" t="n">
         <v>240</v>
       </c>
-      <c r="X17">
-        <v>7.77148633652138e+17</v>
+      <c r="X17" t="n">
+        <v>777148633652137984</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -3273,15 +2415,15 @@
       <c r="V18" t="s">
         <v>215</v>
       </c>
-      <c r="W18">
+      <c r="W18" t="n">
         <v>651</v>
       </c>
-      <c r="X18">
-        <v>7.79745842755277e+17</v>
+      <c r="X18" t="n">
+        <v>779745842755276800</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -3347,15 +2489,15 @@
       <c r="V19" t="s">
         <v>226</v>
       </c>
-      <c r="W19">
+      <c r="W19" t="n">
         <v>253</v>
       </c>
-      <c r="X19">
-        <v>7.83896727882306e+17</v>
+      <c r="X19" t="n">
+        <v>783896727882305536</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -3421,15 +2563,15 @@
       <c r="V20" t="s">
         <v>237</v>
       </c>
-      <c r="W20">
+      <c r="W20" t="n">
         <v>336</v>
       </c>
-      <c r="X20">
-        <v>7.86709021557137e+17</v>
+      <c r="X20" t="n">
+        <v>786709021557137408</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -3495,16 +2637,15 @@
       <c r="V21" t="s">
         <v>248</v>
       </c>
-      <c r="W21">
+      <c r="W21" t="n">
         <v>284</v>
       </c>
-      <c r="X21">
-        <v>7.89544027459686e+17</v>
+      <c r="X21" t="n">
+        <v>789544027459686400</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>